--- a/500all/speech_level/speeches_CHRG-114hhrg94578.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94578.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. The Committee on Homeland Security, Subcommittee on Cybersecurity, Infrastructure Protection, and Security Technologies, will come to order.    I now recognize myself for an opening statement.    The subcommittee meets today to hear from key stakeholders, including industry, privacy advocates in academia, on the President's cybersecurity information-sharing proposal in recent cyber initiatives.    Last week the full committee heard testimony from the Department of Homeland Security's top cyber officials on the growing cybersecurity threat and how this legislative proposal could enhance protection of our digital networks and American's most personal information.    Today we turn to the private sector and look forward to hearing from our witnesses on what they think cyber threat-sharing legislation should look like. For years, the private sector has been on the front line battling devastating cyber attacks from criminals, activists in nation-states such as Iran, China, Russia, and North Korea. Any cyber threat-sharing legislation produced by Congress should enhance existing capabilities and relationships while establishing procedures to safeguard personal privacy.    Protecting privacy and the integrity of information is what compels us to act. The recent cyber breach of health insurance giant Anthem exposed the personal information of up to 80 million Americans, approximately 1 in every 4 Americans, demonstrating that the quantity and sophistication of these attacks is only increasing.    Just last week the director of national intelligence, James Clapper, underscored this fact, stating that cyber attacks against us are increasing in frequency, scale, sophistication, and severity of impact and that the methods of attack and the systems targeted and the victims are also expanding in diversity and intensity on a daily basis.    He emphasized that privacy and the integrity of information are indeed at risk, stating that, ``In the future, we will probably see cyber operations that change or manipulate electronic information to compromise its integrity instead of simply deleting or disrupting access to it.''    Director Clapper also revealed that, in 2014, America saw for the first time destructive cyber attacks carried out on U.S. soil by nation-state entities when he confirmed that Iran was behind the cyber attack against the Las Vegas Sands Corporation, which is owned by a vocal supporter of Israel. These breaches are now becoming the norm with attacks on Sony Pictures, Target, Home Depot, JPMorgan, and others as evidence of that fact.    FBI director Jim Comey recently stated, ``There are two kinds of big companies in the United States, those who have been hacked by the Chinese and those who don't know they have been hacked by the Chinese.''    Further, these attacks are not just affecting the largest businesses in financial institutions, but small and medium ones as well. Accordingly, we need to pass legislation that facilitates the sharing of cyber threat indicators and contains robust privacy protections to improve collaboration between Federal civilian agencies, like the DHS, and the private sector.    The Department of Homeland Security's National Cybersecurity and Communications Integration Center, or NCCIC, has been at the forefront of working with the private sector to facilitate cyber threat sharing between the Government and the private sector. NCCIC is a civilian cyber operations center with an embedded statutorily-required privacy office.    In fact, both industry and privacy advocates support NCCIC, which was codified into law last year in bipartisan legislation produced by this committee. NCCIC has been the lead civilian portal for cyber threat sharing between the private sector and the Government, and it is important that NCCIC and other civilian portals be the focus of any cyber threat-sharing legislation.    Today many companies still choose not to share cyber threat indicators with one another or with NCCIC because they fear legal liability. Information about an attack experienced by one company can enable another to fortify its defenses. Yet, when the sharing does not occur, it leaves all of us more vulnerable because the same criminals can use the same tactics to target other companies, exposing even more Americans to having their private information compromised.    Past legislative attempts to improve cyber threat sharing between the private sector and Government and private sector-to-private sector have failed in large part because they could not balance privacy protections with the need for industry to share cyber threat indicators. This Congress I look forward to working with Chairman McCaul, Ranking Member Thompson, and Ranking Member Richmond to craft thoughtful cybersecurity legislation that achieves this balance.    I look forward to hearing from each of the witnesses in their respective fields about the opinions on how best this committee should move forward on drafting legislation to address these issues and what perspectives each of you have on the President's recent legislative proposal and cyber initiatives.    Every generation faces monumental moments where its tenacity to overcome the challenges of our time are tested. Now is our time, as we move deeper into the digital age, to ensure that the cybersecurity challenges we face today are met with the same resolve shown by previous generations of Americans.    I want to thank the witnesses for testifying before this committee, and I look forward to your testimony.</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I know that Ranking Member Richmond is on his way, and on his behalf I will just welcome our witnesses.    In particular, I want to acknowledge Greg Garcia, whom I worked with when I chaired this subcommittee many years ago and when you had the Department of Homeland Security.    I thank all of you for your work. I know in one way or another I have had the opportunity to interact with all of our witnesses. Thank you for the work you are doing to better protect our country. I look forward to hearing your perspective here today.    Mr. Chairman, I especially want to commend you for holding this hearing today. Thank you for giving the information-sharing and data breach issues the attention that it needs and deserves. Hearing from expert witnesses I know will move this issue ahead further.    Obviously, there is no one answer to solving our cybersecurity challenges. It is never a problem to be solved, as I have said many times, but it is a problem to be managed, and we have to do a much better job of getting to a place where we are much better protected in cyber space than where we are. We can close that air of vulnerability down to something much more manageable.    It won't be just a Government answer, of course, and it is not going to be just private sector. It is going to take that collaboration of us working together to solve this and deal with this incredible challenge.    So, with that, I will yield back.    I thank our witnesses in advance for being here and what they are about to say.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Eggers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Eggers. Good to see you.</t>
   </si>
   <si>
@@ -103,18 +94,12 @@
     <t xml:space="preserve">    Mr. Ratcliffe. Appreciate everyone's patience. We're accommodating with the weather, and I think we're going to have some Members return. But I want to continue with everyone's testimony.    So I appreciate, Mr. Eggers, your testimony.    Next we would love to hear from Ms. Callahan.</t>
   </si>
   <si>
-    <t>Callahan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Callahan. Thank you, sir.    Good afternoon, Chairman Ratcliffe. Thank you for the opportunity to appear before you today.    My name is Mary Ellen Callahan, and I'm a partner at the law firm of Jenner &amp; Block, where I chair the privacy and information governance practice. From 2009 to 2012, I served as the Chief Privacy Officer of the U.S. Department of Homeland Security. I'm appearing before this committee in my personal capacity.    Cybersecurity information sharing is vital to protect private- and public-sector assets. In order to prepare for disclosing cybersecurity threat indicators, however, to the other entities in the cybersecurity ecosystem, the information sharing with the Government must meet certain standards to address industry interests and needs.    There are six factors that are crucial for establishing robust effective private-sector information sharing with the Government:    First, the Government must establish and implement legitimate privacy safeguards.    Second, clearly-established controls must be placed on what the Government does with that shared information.    Third, the controls must include civilian interface with the private sector, not just as an intake center, but for all communications and coordination related to cybersecurity information sharing.    Fourth, a value proposition for the information sharing must be established.    Fifth, liability limitations must be provided both civilly and criminally.    Finally, the Congress should expressly provide the Privacy and Civil Liberties Oversight Board with oversight authority over cybersecurity, including information sharing.    It is unfortunate that the 2015 Executive Order did not elaborate on the necessary privacy and civil liberties protections, particularly with regard to private-sector information sharing.    Nonetheless, the DHS Privacy Officer and Office for Civil Rights and Civil Liberties can address those private-sector concerns, including with the intersection of the Information Sharing and Analysis Organizations, or ISAOs.    DHS has been quite transparent about its cybersecurity capacities and privacy protections starting from the time when Mr. Garcia was at Homeland Security. This work will assist DHS in establishing deeper relations with the new and existing ISAOs.    In addition, as this subcommittee knows, the DHS Chief Privacy Officer has unique investigatory authorities. Therefore, in the event that something went awry in the future, the Chief Privacy Officer can investigate these activities. That authority may be of interest to the private companies and ISAOs as more private information starts to flow into the Government.    There are three categories of information that companies may provide when sharing cybersecurity threat indicators: Information directly associated the cyber threat; information related to the cyber threat; and information incidentally retained when sharing the threat indicators themselves.    To limit the amount of incidentally retained and related information being shared, companies should implement strict data minimization standards. Frequently, however, it may not be evident upon initial sharing which information is directly associated with the threat and which information is either incidentally retained or only related to the cyber threat. Therefore, more information than necessary may be shared.    As a result, the Federal Government should implement a secondary data minimization review and limit any sharing of information only to the information directly associated with the threat.    In certain discussions, there have been recommendations to share all cybersecurity threat information, including the related and incidentally-retained information, as soon as possible with all Government entities. This is ill-advised.    If such sharing were to occur, each agency would need to re-analyze the information to determine what is relevant and what is not. If there is a requirement to immediately share, then more information than necessary will be shared throughout the Government.    Wide-spread sharing of related or incidentally-retained information will chill information sharing generally. Companies will not want their non-cyber-threat information shared widely, even if there are use limitations. To be clear, use limitations must be placed to provide guidance to the Government and necessary comfort to the sharing companies.    The use of private-sector shared information must be cabined to only include use for cybersecurity threat and response. Relatedly, the Federal Government, including intelligence agencies, should have limitations on what agencies can retain and for how long with regard to the shared information from companies.    Ensuring civilian control of the life cycle of cybersecurity information from the private sector is critical to comfort private companies before they share cybersecurity threat indicators in volume.    Critical infrastructure sectors in companies have had reservations about information being shared that may not only be used for informing other vulnerable entities, but also would have been used for investigations or National security without concomitant benefit.    The liability limitation is also important. Companies and ISAOs need to be comforted that the information they share will be appropriately protected.    Finally, the Privacy and Civil Liberties Oversight Board authority should be expanded to include oversight of cybersecurity activities, including information sharing with and from the private sector.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Ms. Callahan.    The Chairman now recognizes Mr. Garcia to testify.</t>
   </si>
   <si>
-    <t>Garcia</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garcia. Thank you, Mr. Chairman. Thanks for the opportunity to address the subcommittee about the President's information-sharing Executive Order.    The Financial Services Sector Coordinating Council, or FSSCC, was establishes in 2002. It involves 65 of the largest financial services providers and their industry associations. Its mission is to coordinate sector-wide efforts to strengthen the resiliency of the financial services sector against threats to the Nation's critical infrastructure. So we're focused on the critical infrastructure sector.    In practice, this means that we work with Government and other partners to address information-sharing content and procedures, incident response, cyber and operational risk management best practices, and appropriate policy enhancements to support the above objectives.    We've learned over the years that strong risk management requires participating in communities of trust that share information on cyber and physical threats, vulnerabilities, and incidents. This is based on the simple concept of strength in numbers, the neighborhood watch, shared situational awareness.    While the FSSCC focuses on longer-term trends and strategy, our sector's operational arm is the Financial Services Information Sharing and Analysis Center, or FS-ISAC. The FS-ISAC participates in many information-sharing programs. One key partner that you mentioned in your opening statement is the National Cybersecurity and Communications Integration Center, or NCCIC.    The NCCIC is a hub for sharing information about cyber and communications incidents across sectors, and the financial sector has a seat on the NCCIC watch floor. The industry-sector officials that serve on the NCCIC are cleared at the Top Secret level. So they attend daily briefs and other NCCIC meetings about threats, vulnerabilities, and incidents affecting the financial sector.    Within the sector, FS-ISAC manages a formal structure for collecting, analyzing, and sharing actionable intelligence and best practices among members and the sector, as well as with our industry, Government, and law enforcement partners. I'll be happy to talk about all of that in detail during Q and A about how we do that.    The sector continues to make progress on the speed and reliability of its information-sharing efforts. Late last year, for example, the financial sector announced a new automated threat-sharing capability called Soltra Edge. This uses open standards funded by DHS that facilitate automated machine-to-machine information sharing.    It helps our industry increase the speed, scale, and accuracy of information sharing, and it accelerates the time to resolution. It can be used by any sectors and with any sectors or information-sharing groups. So this is a way of complimenting human-to-human sharing by using machine-to-machine whenever possible.    So the point is the financial sector has a very robust information-sharing environment among ourselves and with the Government and we're always working to improve it.    So let me just spend the final moments of my statement discussing the President's Executive Order on private-sector information sharing.    In our view, the administration's Executive Action is a positive step. We expect it has the potential to increase the volume and quality of actionable and timely cybersecurity information. We offer a few observations that can inform implementation of the order.    First, as the sharing and use of Classified information can improve our response capability, it's important that the clearance process for critical sectors like ours is fast and efficient. The Executive Order supports this goal by enhancing DHS's involvement in the clearance process. This can help accelerate the security clearance process for critical sector owners and operators.    Also, in general, we support the creation of the ISAOs, Information Sharing Analysis Organizations. This can be a way for noncritical sector groups to share cybersecurity information and coordinate analysis and response.    We understand that the impetus for the ISAO proposal was to raise awareness for stakeholder groups looking to coalesce around joint information-sharing objectives, and we believe that the ISAO standards development process should build on the strong foundation laid by the ISACs.    We caveat, however, that ISACs, as distinct from ISAOs, must retain their special partnership status with the Government, given their broad sector representation and a strong cadre of operational support with security clearances.    Certain important principles need to be kept in mind for the standards development process. Sharing is successful within communities of trust when there are clear and enforced information-handling rules.    Information sharing is not a competitive sport. Operational standards should incentivize federated information-sharing. Intelligence needs to be fused across trust communities, not diffused or siloed.    Government processes for collecting, analyzing, and packaging intelligence for private-sector consumption must be streamlined and transparent. Indeed, the 2013 Executive Order directs the Government to do just that.    In anticipating the potential for heavy demands from a proliferation of ISAOs, the NCCIC should prioritize its resources and engagements according to established criteria. They'll need to consider Government capacity to effectively serve critical sector constituents in steady-state and surge mode. They need to consider the reach those stakeholders have into their sectors and the effectiveness of their capabilities.    It's also important that the ISAO standards development process be collaborative, open, and transparent. The process managed during the development of the NIST cybersecurity framework, for example, is an excellent example of this principle.    Okay. Mr. Chairman, that concludes my oral remarks. I'll be happy to answer questions.</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t xml:space="preserve">    Mr. Ratcliffe. The Chairman now recognizes Dr. Libicki.</t>
   </si>
   <si>
-    <t>Libicki</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Libicki. Good afternoon, Chairman Ratcliffe, Ranking Member Richmond, and distinguished Members of the subcommittee. My name is Martin Libicki from The RAND Corporation.    Thank you for the opportunity to testify today about the President's cybersecurity information-sharing proposal. As a general proposition, information sharing among defenders makes for a better defense.    Nevertheless, two concerns merit note. First, the current proposals do not address and may even exacerbate a cybersecurity divide. Second, an enormous amount of political energy is being dedicated to a point solution to a broad problem.    A cybersecurity divide exists between organizations, roughly speaking, large enough to afford their own chief information security officer and those that cannot.    ISAOs, for their part, are oriented towards organizations that can afford the membership fees. Unless other mechanisms to share information with the smaller organizations are bolstered, the latter are going to be left out of whatever information-sharing exists.    As for the narrower focus, several weeks ago President Obama said, ``There's only one way to defend America from cyber threats, and that's Government and industry working together, sharing appropriate information.'' An associated Executive Order calls for ``fostering the development and adoption of automated mechanisms for the sharing of information.''    However, cybersecurity is so complex a challenge that not only is information sharing not the ``only one way,'' but the model proposed for information sharing is not even the only one way to share information.    To explain why, let's note three models of information sharing.    In the first model, vulnerabilities in software are found by white hat hackers and the forensic specialists brought into the attention of the vendors. The vendors, when they receive this information, attack the vulnerabilities and generally fix them. This is a model that would lead to better software and can be encouraged by the Federal Government with a modest addition of funding and without having to pass any new laws.    In a second model, the collection and analysis of cyber attacks can shed light on what organizations could have done differently to have prevented or at least mitigated the effects of such attacks. Such sharing permits evidence-based assessments of alternative cybersecurity tools, techniques, and practices. This model can be encouraged by empowering organizations, such as NIST, and funding various R&amp;D entities, such as the ARPAs and NSF, to build and disseminate a systematic body of knowledge on cybersecurity.    The first model results in better software. The second model results in better cybersecurity management. Organizations of all size can benefit from each.    The third model of information sharing, organizations are asked to report details of the attacks they have suffered, such as malware samples, attacker modus operandi, IP addresses, attack vectors, induced anomalies, social engineering methods and so on. These are used to profile specific threat actors so that the signatures of their activity can be fed to intrusion detection and prevention systems of organizations that happen to have them.    The usefulness of this third model, however, requires that four assumptions be true.    The first assumption is that most serious attacks come from specific black hat hacker groups who repeat their attacks often enough so that evidence from early attacks can be used to detect later ones.    The second assumption is that such groups maintain a consistent modus operandi that is constantly reused.    The third assumption is that such signatures can be shared in a timely manner, something that is complicated by the length of time--several months to a year--between when a typical advanced attack starts and when it is discovered.    The fourth assumption is that such signatures will not evolve over time, even if information sharing were to become so wide-spread that the failure to evolve on the part of hackers would doom their ability to compromise networks.    An analogy may be made to the anti-virus industry. The majors run very large information-gathering networks fed by inputs from sensors placed throughout the internet, but the anti-virus model has lost viability in the face of ever-shifting signatures and the tendency of attackers to test their malware against anti-virus suites before releasing them.    Granted, the threat-based information-sharing model, if substantiated, would not be totally useless. Not every black hat hacker group will be conscientiously altering its modus operandi, and forcing such groups to cluster their attacks or shift their attack vectors does mean more work for them.    Nevertheless, threat-based information sharing is no panacea, and, yet, efforts to achieve it have absorbed a disproportional share of the legislative and media bandwidth on the topic of cybersecurity policy, crowding out the consideration of alternative approaches. Hence, the basis for our concern.    I appreciate the opportunity to discuss this important topic, and I look forward to your questions.</t>
   </si>
   <si>
@@ -200,9 +182,6 @@
   </si>
   <si>
     <t>412604</t>
-  </si>
-  <si>
-    <t>Curt Clawson</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Clawson. So you all had the good luck or bad luck of coming when it turns out to be a fly-out day, weather day, votes at the last second. I mean, you know, you had everything going against you. I wouldn't take personal offense to a bunch of folks not being here because it is an unusual day up here.    So I think I have a grasp on what we're trying to do and why we're trying to do it. But when I put myself, if I were a participating company, with so many different stakeholders, particularly if it was a multi-national, I don't know how you get this to work.    It feels like the right thing that the anti-trust blocks could get thrown out of the way by the Government. Liability insurance feels like a good start, too. But there still feels to be a lot of other obstacles that, if I were running my company, would give me lots of pause here.    There's a long list. Right? I mean, first of all, if I was and have operated in foreign countries and their governments wanted to do this to me, I know I'd just say no.    So the foreign stakeholders, including security holders, I think also makes this a lot more complicated, particularly in former Soviet Bloc countries, by the way, where they don't like Government involved in their IT systems. So the multi-national nature of stakeholders is the first thing that comes to mind.    The second thing that comes to mind is who's not going to participate. If you don't get a big block of people in my industry participating, I am not sure I'd want to.    The third thing I'd say is, ``Isn't this going to slow me down?'' More important, the very tool that you seem to be putting in place here might help the bad guys. Because if the Government does get in the middle almost at any level, it slows down, I think what the point is, disseminating data to the people that understand the malware as quickly as possible. So I could keep going on and on here.    So I kind of feel like I like the idea. The devil's in the details. If I were a business, you'd have to--you know, if I were running a business again, you'd have to lay out pretty clearly how we would get over some of these obstacles and me still keep my fiduciary responsibility to shareholders and the other stakeholders in the company.    When I hear that not everybody wants to participate, I say to myself, ``Hmm. I can kind of understand that.'' Now, that's from a non-IT guy, by the way. So you all know more about these things than I do.    So take up where I've left off here. Am I on shaky ground in terms of these kind of concerns or am I hitting on something that you all have already anticipated and addressed prior to this in your own studies and activities?</t>
@@ -724,11 +703,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -750,11 +727,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -776,11 +751,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -800,13 +773,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -828,11 +799,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -854,11 +823,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -880,11 +847,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -904,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -932,11 +895,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -956,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -984,11 +943,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1010,11 +967,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1034,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1062,11 +1015,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1086,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1114,11 +1063,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1140,11 +1087,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1164,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1192,11 +1135,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1216,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1244,11 +1183,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1268,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1296,11 +1231,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1320,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1348,11 +1279,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1372,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1400,11 +1327,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1424,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1452,11 +1375,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1476,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1504,11 +1423,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1528,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1556,11 +1471,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1580,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1608,11 +1519,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1632,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1660,11 +1567,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1684,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1712,11 +1615,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1736,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1764,11 +1663,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1788,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1814,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1840,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1866,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1892,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1918,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1944,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
         <v>62</v>
-      </c>
-      <c r="H49" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1970,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1996,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2022,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2048,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2074,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2100,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2126,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2152,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2178,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2204,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2230,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2256,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2282,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
-      </c>
-      <c r="G62" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2308,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2334,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2360,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2386,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2412,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2438,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
-      </c>
-      <c r="G68" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2464,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2490,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
-      </c>
-      <c r="G70" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2516,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2542,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
-      </c>
-      <c r="G72" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2568,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2594,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
-      </c>
-      <c r="G74" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2620,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2646,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2672,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
-      </c>
-      <c r="G77" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2698,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2724,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
-      </c>
-      <c r="G79" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2750,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2776,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
-      </c>
-      <c r="G81" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2802,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2828,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G83" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2856,11 +2671,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94578.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94578.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. The Committee on Homeland Security, Subcommittee on Cybersecurity, Infrastructure Protection, and Security Technologies, will come to order.    I now recognize myself for an opening statement.    The subcommittee meets today to hear from key stakeholders, including industry, privacy advocates in academia, on the President's cybersecurity information-sharing proposal in recent cyber initiatives.    Last week the full committee heard testimony from the Department of Homeland Security's top cyber officials on the growing cybersecurity threat and how this legislative proposal could enhance protection of our digital networks and American's most personal information.    Today we turn to the private sector and look forward to hearing from our witnesses on what they think cyber threat-sharing legislation should look like. For years, the private sector has been on the front line battling devastating cyber attacks from criminals, activists in nation-states such as Iran, China, Russia, and North Korea. Any cyber threat-sharing legislation produced by Congress should enhance existing capabilities and relationships while establishing procedures to safeguard personal privacy.    Protecting privacy and the integrity of information is what compels us to act. The recent cyber breach of health insurance giant Anthem exposed the personal information of up to 80 million Americans, approximately 1 in every 4 Americans, demonstrating that the quantity and sophistication of these attacks is only increasing.    Just last week the director of national intelligence, James Clapper, underscored this fact, stating that cyber attacks against us are increasing in frequency, scale, sophistication, and severity of impact and that the methods of attack and the systems targeted and the victims are also expanding in diversity and intensity on a daily basis.    He emphasized that privacy and the integrity of information are indeed at risk, stating that, ``In the future, we will probably see cyber operations that change or manipulate electronic information to compromise its integrity instead of simply deleting or disrupting access to it.''    Director Clapper also revealed that, in 2014, America saw for the first time destructive cyber attacks carried out on U.S. soil by nation-state entities when he confirmed that Iran was behind the cyber attack against the Las Vegas Sands Corporation, which is owned by a vocal supporter of Israel. These breaches are now becoming the norm with attacks on Sony Pictures, Target, Home Depot, JPMorgan, and others as evidence of that fact.    FBI director Jim Comey recently stated, ``There are two kinds of big companies in the United States, those who have been hacked by the Chinese and those who don't know they have been hacked by the Chinese.''    Further, these attacks are not just affecting the largest businesses in financial institutions, but small and medium ones as well. Accordingly, we need to pass legislation that facilitates the sharing of cyber threat indicators and contains robust privacy protections to improve collaboration between Federal civilian agencies, like the DHS, and the private sector.    The Department of Homeland Security's National Cybersecurity and Communications Integration Center, or NCCIC, has been at the forefront of working with the private sector to facilitate cyber threat sharing between the Government and the private sector. NCCIC is a civilian cyber operations center with an embedded statutorily-required privacy office.    In fact, both industry and privacy advocates support NCCIC, which was codified into law last year in bipartisan legislation produced by this committee. NCCIC has been the lead civilian portal for cyber threat sharing between the private sector and the Government, and it is important that NCCIC and other civilian portals be the focus of any cyber threat-sharing legislation.    Today many companies still choose not to share cyber threat indicators with one another or with NCCIC because they fear legal liability. Information about an attack experienced by one company can enable another to fortify its defenses. Yet, when the sharing does not occur, it leaves all of us more vulnerable because the same criminals can use the same tactics to target other companies, exposing even more Americans to having their private information compromised.    Past legislative attempts to improve cyber threat sharing between the private sector and Government and private sector-to-private sector have failed in large part because they could not balance privacy protections with the need for industry to share cyber threat indicators. This Congress I look forward to working with Chairman McCaul, Ranking Member Thompson, and Ranking Member Richmond to craft thoughtful cybersecurity legislation that achieves this balance.    I look forward to hearing from each of the witnesses in their respective fields about the opinions on how best this committee should move forward on drafting legislation to address these issues and what perspectives each of you have on the President's recent legislative proposal and cyber initiatives.    Every generation faces monumental moments where its tenacity to overcome the challenges of our time are tested. Now is our time, as we move deeper into the digital age, to ensure that the cybersecurity challenges we face today are met with the same resolve shown by previous generations of Americans.    I want to thank the witnesses for testifying before this committee, and I look forward to your testimony.</t>
   </si>
   <si>
@@ -64,6 +73,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I know that Ranking Member Richmond is on his way, and on his behalf I will just welcome our witnesses.    In particular, I want to acknowledge Greg Garcia, whom I worked with when I chaired this subcommittee many years ago and when you had the Department of Homeland Security.    I thank all of you for your work. I know in one way or another I have had the opportunity to interact with all of our witnesses. Thank you for the work you are doing to better protect our country. I look forward to hearing your perspective here today.    Mr. Chairman, I especially want to commend you for holding this hearing today. Thank you for giving the information-sharing and data breach issues the attention that it needs and deserves. Hearing from expert witnesses I know will move this issue ahead further.    Obviously, there is no one answer to solving our cybersecurity challenges. It is never a problem to be solved, as I have said many times, but it is a problem to be managed, and we have to do a much better job of getting to a place where we are much better protected in cyber space than where we are. We can close that air of vulnerability down to something much more manageable.    It won't be just a Government answer, of course, and it is not going to be just private sector. It is going to take that collaboration of us working together to solve this and deal with this incredible challenge.    So, with that, I will yield back.    I thank our witnesses in advance for being here and what they are about to say.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -79,6 +94,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Eggers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Eggers. Good to see you.</t>
   </si>
   <si>
@@ -94,12 +112,18 @@
     <t xml:space="preserve">    Mr. Ratcliffe. Appreciate everyone's patience. We're accommodating with the weather, and I think we're going to have some Members return. But I want to continue with everyone's testimony.    So I appreciate, Mr. Eggers, your testimony.    Next we would love to hear from Ms. Callahan.</t>
   </si>
   <si>
+    <t>Callahan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Callahan. Thank you, sir.    Good afternoon, Chairman Ratcliffe. Thank you for the opportunity to appear before you today.    My name is Mary Ellen Callahan, and I'm a partner at the law firm of Jenner &amp; Block, where I chair the privacy and information governance practice. From 2009 to 2012, I served as the Chief Privacy Officer of the U.S. Department of Homeland Security. I'm appearing before this committee in my personal capacity.    Cybersecurity information sharing is vital to protect private- and public-sector assets. In order to prepare for disclosing cybersecurity threat indicators, however, to the other entities in the cybersecurity ecosystem, the information sharing with the Government must meet certain standards to address industry interests and needs.    There are six factors that are crucial for establishing robust effective private-sector information sharing with the Government:    First, the Government must establish and implement legitimate privacy safeguards.    Second, clearly-established controls must be placed on what the Government does with that shared information.    Third, the controls must include civilian interface with the private sector, not just as an intake center, but for all communications and coordination related to cybersecurity information sharing.    Fourth, a value proposition for the information sharing must be established.    Fifth, liability limitations must be provided both civilly and criminally.    Finally, the Congress should expressly provide the Privacy and Civil Liberties Oversight Board with oversight authority over cybersecurity, including information sharing.    It is unfortunate that the 2015 Executive Order did not elaborate on the necessary privacy and civil liberties protections, particularly with regard to private-sector information sharing.    Nonetheless, the DHS Privacy Officer and Office for Civil Rights and Civil Liberties can address those private-sector concerns, including with the intersection of the Information Sharing and Analysis Organizations, or ISAOs.    DHS has been quite transparent about its cybersecurity capacities and privacy protections starting from the time when Mr. Garcia was at Homeland Security. This work will assist DHS in establishing deeper relations with the new and existing ISAOs.    In addition, as this subcommittee knows, the DHS Chief Privacy Officer has unique investigatory authorities. Therefore, in the event that something went awry in the future, the Chief Privacy Officer can investigate these activities. That authority may be of interest to the private companies and ISAOs as more private information starts to flow into the Government.    There are three categories of information that companies may provide when sharing cybersecurity threat indicators: Information directly associated the cyber threat; information related to the cyber threat; and information incidentally retained when sharing the threat indicators themselves.    To limit the amount of incidentally retained and related information being shared, companies should implement strict data minimization standards. Frequently, however, it may not be evident upon initial sharing which information is directly associated with the threat and which information is either incidentally retained or only related to the cyber threat. Therefore, more information than necessary may be shared.    As a result, the Federal Government should implement a secondary data minimization review and limit any sharing of information only to the information directly associated with the threat.    In certain discussions, there have been recommendations to share all cybersecurity threat information, including the related and incidentally-retained information, as soon as possible with all Government entities. This is ill-advised.    If such sharing were to occur, each agency would need to re-analyze the information to determine what is relevant and what is not. If there is a requirement to immediately share, then more information than necessary will be shared throughout the Government.    Wide-spread sharing of related or incidentally-retained information will chill information sharing generally. Companies will not want their non-cyber-threat information shared widely, even if there are use limitations. To be clear, use limitations must be placed to provide guidance to the Government and necessary comfort to the sharing companies.    The use of private-sector shared information must be cabined to only include use for cybersecurity threat and response. Relatedly, the Federal Government, including intelligence agencies, should have limitations on what agencies can retain and for how long with regard to the shared information from companies.    Ensuring civilian control of the life cycle of cybersecurity information from the private sector is critical to comfort private companies before they share cybersecurity threat indicators in volume.    Critical infrastructure sectors in companies have had reservations about information being shared that may not only be used for informing other vulnerable entities, but also would have been used for investigations or National security without concomitant benefit.    The liability limitation is also important. Companies and ISAOs need to be comforted that the information they share will be appropriately protected.    Finally, the Privacy and Civil Liberties Oversight Board authority should be expanded to include oversight of cybersecurity activities, including information sharing with and from the private sector.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Ms. Callahan.    The Chairman now recognizes Mr. Garcia to testify.</t>
   </si>
   <si>
+    <t>Garcia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Garcia. Thank you, Mr. Chairman. Thanks for the opportunity to address the subcommittee about the President's information-sharing Executive Order.    The Financial Services Sector Coordinating Council, or FSSCC, was establishes in 2002. It involves 65 of the largest financial services providers and their industry associations. Its mission is to coordinate sector-wide efforts to strengthen the resiliency of the financial services sector against threats to the Nation's critical infrastructure. So we're focused on the critical infrastructure sector.    In practice, this means that we work with Government and other partners to address information-sharing content and procedures, incident response, cyber and operational risk management best practices, and appropriate policy enhancements to support the above objectives.    We've learned over the years that strong risk management requires participating in communities of trust that share information on cyber and physical threats, vulnerabilities, and incidents. This is based on the simple concept of strength in numbers, the neighborhood watch, shared situational awareness.    While the FSSCC focuses on longer-term trends and strategy, our sector's operational arm is the Financial Services Information Sharing and Analysis Center, or FS-ISAC. The FS-ISAC participates in many information-sharing programs. One key partner that you mentioned in your opening statement is the National Cybersecurity and Communications Integration Center, or NCCIC.    The NCCIC is a hub for sharing information about cyber and communications incidents across sectors, and the financial sector has a seat on the NCCIC watch floor. The industry-sector officials that serve on the NCCIC are cleared at the Top Secret level. So they attend daily briefs and other NCCIC meetings about threats, vulnerabilities, and incidents affecting the financial sector.    Within the sector, FS-ISAC manages a formal structure for collecting, analyzing, and sharing actionable intelligence and best practices among members and the sector, as well as with our industry, Government, and law enforcement partners. I'll be happy to talk about all of that in detail during Q and A about how we do that.    The sector continues to make progress on the speed and reliability of its information-sharing efforts. Late last year, for example, the financial sector announced a new automated threat-sharing capability called Soltra Edge. This uses open standards funded by DHS that facilitate automated machine-to-machine information sharing.    It helps our industry increase the speed, scale, and accuracy of information sharing, and it accelerates the time to resolution. It can be used by any sectors and with any sectors or information-sharing groups. So this is a way of complimenting human-to-human sharing by using machine-to-machine whenever possible.    So the point is the financial sector has a very robust information-sharing environment among ourselves and with the Government and we're always working to improve it.    So let me just spend the final moments of my statement discussing the President's Executive Order on private-sector information sharing.    In our view, the administration's Executive Action is a positive step. We expect it has the potential to increase the volume and quality of actionable and timely cybersecurity information. We offer a few observations that can inform implementation of the order.    First, as the sharing and use of Classified information can improve our response capability, it's important that the clearance process for critical sectors like ours is fast and efficient. The Executive Order supports this goal by enhancing DHS's involvement in the clearance process. This can help accelerate the security clearance process for critical sector owners and operators.    Also, in general, we support the creation of the ISAOs, Information Sharing Analysis Organizations. This can be a way for noncritical sector groups to share cybersecurity information and coordinate analysis and response.    We understand that the impetus for the ISAO proposal was to raise awareness for stakeholder groups looking to coalesce around joint information-sharing objectives, and we believe that the ISAO standards development process should build on the strong foundation laid by the ISACs.    We caveat, however, that ISACs, as distinct from ISAOs, must retain their special partnership status with the Government, given their broad sector representation and a strong cadre of operational support with security clearances.    Certain important principles need to be kept in mind for the standards development process. Sharing is successful within communities of trust when there are clear and enforced information-handling rules.    Information sharing is not a competitive sport. Operational standards should incentivize federated information-sharing. Intelligence needs to be fused across trust communities, not diffused or siloed.    Government processes for collecting, analyzing, and packaging intelligence for private-sector consumption must be streamlined and transparent. Indeed, the 2013 Executive Order directs the Government to do just that.    In anticipating the potential for heavy demands from a proliferation of ISAOs, the NCCIC should prioritize its resources and engagements according to established criteria. They'll need to consider Government capacity to effectively serve critical sector constituents in steady-state and surge mode. They need to consider the reach those stakeholders have into their sectors and the effectiveness of their capabilities.    It's also important that the ISAO standards development process be collaborative, open, and transparent. The process managed during the development of the NIST cybersecurity framework, for example, is an excellent example of this principle.    Okay. Mr. Chairman, that concludes my oral remarks. I'll be happy to answer questions.</t>
   </si>
   <si>
@@ -109,6 +133,9 @@
     <t xml:space="preserve">    Mr. Ratcliffe. The Chairman now recognizes Dr. Libicki.</t>
   </si>
   <si>
+    <t>Libicki</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Libicki. Good afternoon, Chairman Ratcliffe, Ranking Member Richmond, and distinguished Members of the subcommittee. My name is Martin Libicki from The RAND Corporation.    Thank you for the opportunity to testify today about the President's cybersecurity information-sharing proposal. As a general proposition, information sharing among defenders makes for a better defense.    Nevertheless, two concerns merit note. First, the current proposals do not address and may even exacerbate a cybersecurity divide. Second, an enormous amount of political energy is being dedicated to a point solution to a broad problem.    A cybersecurity divide exists between organizations, roughly speaking, large enough to afford their own chief information security officer and those that cannot.    ISAOs, for their part, are oriented towards organizations that can afford the membership fees. Unless other mechanisms to share information with the smaller organizations are bolstered, the latter are going to be left out of whatever information-sharing exists.    As for the narrower focus, several weeks ago President Obama said, ``There's only one way to defend America from cyber threats, and that's Government and industry working together, sharing appropriate information.'' An associated Executive Order calls for ``fostering the development and adoption of automated mechanisms for the sharing of information.''    However, cybersecurity is so complex a challenge that not only is information sharing not the ``only one way,'' but the model proposed for information sharing is not even the only one way to share information.    To explain why, let's note three models of information sharing.    In the first model, vulnerabilities in software are found by white hat hackers and the forensic specialists brought into the attention of the vendors. The vendors, when they receive this information, attack the vulnerabilities and generally fix them. This is a model that would lead to better software and can be encouraged by the Federal Government with a modest addition of funding and without having to pass any new laws.    In a second model, the collection and analysis of cyber attacks can shed light on what organizations could have done differently to have prevented or at least mitigated the effects of such attacks. Such sharing permits evidence-based assessments of alternative cybersecurity tools, techniques, and practices. This model can be encouraged by empowering organizations, such as NIST, and funding various R&amp;D entities, such as the ARPAs and NSF, to build and disseminate a systematic body of knowledge on cybersecurity.    The first model results in better software. The second model results in better cybersecurity management. Organizations of all size can benefit from each.    The third model of information sharing, organizations are asked to report details of the attacks they have suffered, such as malware samples, attacker modus operandi, IP addresses, attack vectors, induced anomalies, social engineering methods and so on. These are used to profile specific threat actors so that the signatures of their activity can be fed to intrusion detection and prevention systems of organizations that happen to have them.    The usefulness of this third model, however, requires that four assumptions be true.    The first assumption is that most serious attacks come from specific black hat hacker groups who repeat their attacks often enough so that evidence from early attacks can be used to detect later ones.    The second assumption is that such groups maintain a consistent modus operandi that is constantly reused.    The third assumption is that such signatures can be shared in a timely manner, something that is complicated by the length of time--several months to a year--between when a typical advanced attack starts and when it is discovered.    The fourth assumption is that such signatures will not evolve over time, even if information sharing were to become so wide-spread that the failure to evolve on the part of hackers would doom their ability to compromise networks.    An analogy may be made to the anti-virus industry. The majors run very large information-gathering networks fed by inputs from sensors placed throughout the internet, but the anti-virus model has lost viability in the face of ever-shifting signatures and the tendency of attackers to test their malware against anti-virus suites before releasing them.    Granted, the threat-based information-sharing model, if substantiated, would not be totally useless. Not every black hat hacker group will be conscientiously altering its modus operandi, and forcing such groups to cluster their attacks or shift their attack vectors does mean more work for them.    Nevertheless, threat-based information sharing is no panacea, and, yet, efforts to achieve it have absorbed a disproportional share of the legislative and media bandwidth on the topic of cybersecurity policy, crowding out the consideration of alternative approaches. Hence, the basis for our concern.    I appreciate the opportunity to discuss this important topic, and I look forward to your questions.</t>
   </si>
   <si>
@@ -182,6 +209,12 @@
   </si>
   <si>
     <t>412604</t>
+  </si>
+  <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Clawson. So you all had the good luck or bad luck of coming when it turns out to be a fly-out day, weather day, votes at the last second. I mean, you know, you had everything going against you. I wouldn't take personal offense to a bunch of folks not being here because it is an unusual day up here.    So I think I have a grasp on what we're trying to do and why we're trying to do it. But when I put myself, if I were a participating company, with so many different stakeholders, particularly if it was a multi-national, I don't know how you get this to work.    It feels like the right thing that the anti-trust blocks could get thrown out of the way by the Government. Liability insurance feels like a good start, too. But there still feels to be a lot of other obstacles that, if I were running my company, would give me lots of pause here.    There's a long list. Right? I mean, first of all, if I was and have operated in foreign countries and their governments wanted to do this to me, I know I'd just say no.    So the foreign stakeholders, including security holders, I think also makes this a lot more complicated, particularly in former Soviet Bloc countries, by the way, where they don't like Government involved in their IT systems. So the multi-national nature of stakeholders is the first thing that comes to mind.    The second thing that comes to mind is who's not going to participate. If you don't get a big block of people in my industry participating, I am not sure I'd want to.    The third thing I'd say is, ``Isn't this going to slow me down?'' More important, the very tool that you seem to be putting in place here might help the bad guys. Because if the Government does get in the middle almost at any level, it slows down, I think what the point is, disseminating data to the people that understand the malware as quickly as possible. So I could keep going on and on here.    So I kind of feel like I like the idea. The devil's in the details. If I were a business, you'd have to--you know, if I were running a business again, you'd have to lay out pretty clearly how we would get over some of these obstacles and me still keep my fiduciary responsibility to shareholders and the other stakeholders in the company.    When I hear that not everybody wants to participate, I say to myself, ``Hmm. I can kind of understand that.'' Now, that's from a non-IT guy, by the way. So you all know more about these things than I do.    So take up where I've left off here. Am I on shaky ground in terms of these kind of concerns or am I hitting on something that you all have already anticipated and addressed prior to this in your own studies and activities?</t>
@@ -653,7 +686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,7 +694,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,1997 +716,2341 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G43" t="s">
+        <v>65</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G45" t="s">
+        <v>65</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G47" t="s">
+        <v>65</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G49" t="s">
+        <v>65</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G51" t="s">
+        <v>65</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G53" t="s">
+        <v>65</v>
+      </c>
       <c r="H53" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G55" t="s">
+        <v>65</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G58" t="s">
+        <v>65</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G62" t="s">
+        <v>65</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G64" t="s">
+        <v>65</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>55</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G66" t="s">
+        <v>65</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G68" t="s">
+        <v>65</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G70" t="s">
+        <v>65</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G72" t="s">
+        <v>65</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>55</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G74" t="s">
+        <v>65</v>
+      </c>
       <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>55</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G77" t="s">
+        <v>65</v>
+      </c>
       <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>55</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G79" t="s">
+        <v>65</v>
+      </c>
       <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>55</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G81" t="s">
+        <v>65</v>
+      </c>
       <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>55</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G83" t="s">
+        <v>65</v>
+      </c>
       <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>96</v>
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94578.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94578.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Ratcliffe</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>400230</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Langevin</t>
@@ -686,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,7 +703,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,2338 +728,2516 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I45" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G49" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>35</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s">
-        <v>35</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G58" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G62" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>35</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G64" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>35</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G66" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H66" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s">
-        <v>39</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>42</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G70" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" t="s">
-        <v>39</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>42</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G72" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" t="s">
-        <v>39</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>42</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G74" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H74" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G77" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H77" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G79" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H79" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G81" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H81" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G83" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I83" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>107</v>
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
